--- a/output_cds2/pepperdine university.xlsx
+++ b/output_cds2/pepperdine university.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,155 +451,215 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>rigor_of_secondary_school_record</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>class_rank</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>standardized_test_scores</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>application_essay</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>extracurricular_activities</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>talent_ability</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>character_personal_qualities</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>geographical_residence</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>religious_affiliation_commitment</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>work_experience</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>level_of_applicant_interest</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>alumni_importance</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>first_generation_importance</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>residency_importance</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>sat_act_importance</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>gpa_importance</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>volunteer_work</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>work_experience</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>volunteer_work_importance</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>state.State</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.english</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.math</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.science</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.scienceLab</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.language</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.social</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.history</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.electives</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.cs</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>general_college_subjects.arts</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>sat_act_required.sat_or_act</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sat_act_required.sat only</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>sat_act_required.act only</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.in-state</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.out-of-state</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.international</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>residency_acceptance.others</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>sat_scores.25th</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>sat_scores.50th</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>sat_scores.75th</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>act scores.25th</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>act scores.50th</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>act scores.75th</t>
         </is>
@@ -654,52 +714,84 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
@@ -715,7 +807,35 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>0</v>
       </c>
     </row>
